--- a/FbProj/PswGame/PswGame_Config/xls/npc.xlsx
+++ b/FbProj/PswGame/PswGame_Config/xls/npc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>NPC ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,7 +56,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试NPC</t>
+    <t>迪迦奥特曼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴拿奥特曼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖亚奥特曼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿古茹奥特曼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海硕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>维达</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -493,63 +529,147 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A5" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="3">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A6" s="1">
         <v>40001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>10004</v>
       </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D7" s="3"/>
+      <c r="A7" s="1">
+        <v>40002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D8" s="3"/>
+      <c r="A8" s="1">
+        <v>40003</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D9" s="3"/>
+      <c r="A9" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D10" s="3"/>
+      <c r="A10" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D17" s="3"/>
+      <c r="A11" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
